--- a/artifact/script/rdbms-08.xlsx
+++ b/artifact/script/rdbms-08.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10214"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77F39D-3223-8244-8A00-E6AF641A87E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10940" windowWidth="51200" windowHeight="20960" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4560" windowWidth="40960" windowHeight="20960" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -39,12 +40,13 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
     <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$21</definedName>
-    <definedName name="web">'#system'!$Q$2:$Q$108</definedName>
-    <definedName name="webalert">'#system'!$R$2:$R$6</definedName>
-    <definedName name="webcookie">'#system'!$S$2:$S$8</definedName>
-    <definedName name="ws">'#system'!$T$2:$T$16</definedName>
-    <definedName name="xml">'#system'!$U$2:$U$11</definedName>
+    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$22</definedName>
+    <definedName name="web">'#system'!$R$2:$R$108</definedName>
+    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
+    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
+    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
+    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -59,13 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="426">
-  <si>
-    <t>jira</t>
-  </si>
-  <si>
-    <t>zephyr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="430">
   <si>
     <t>description</t>
   </si>
@@ -1753,6 +1749,24 @@
  text 
  replace(\,,\, ) ].</t>
   </si>
+  <si>
+    <t>story / feature</t>
+  </si>
+  <si>
+    <t>test id</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>observe(prompt)</t>
+  </si>
+  <si>
+    <t>perform(instructions)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses)</t>
+  </si>
 </sst>
 </file>
 
@@ -2466,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -2477,1432 +2491,1447 @@
     <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" t="s">
+        <v>399</v>
+      </c>
+      <c r="N2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>427</v>
+      </c>
+      <c r="R2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" t="s">
+        <v>185</v>
+      </c>
+      <c r="V2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>378</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>318</v>
+      </c>
+      <c r="N3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>428</v>
+      </c>
+      <c r="R3" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T3" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" t="s">
+        <v>369</v>
+      </c>
+      <c r="V3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" t="s">
+        <v>222</v>
+      </c>
+      <c r="P4" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>429</v>
+      </c>
+      <c r="R4" t="s">
+        <v>357</v>
+      </c>
+      <c r="S4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" t="s">
+        <v>180</v>
+      </c>
+      <c r="U4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" t="s">
+        <v>351</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>223</v>
+      </c>
+      <c r="P5" t="s">
+        <v>364</v>
+      </c>
+      <c r="R5" t="s">
+        <v>358</v>
+      </c>
+      <c r="S5" t="s">
+        <v>176</v>
+      </c>
+      <c r="T5" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5" t="s">
+        <v>187</v>
+      </c>
+      <c r="V5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>246</v>
+      </c>
+      <c r="O6" t="s">
+        <v>396</v>
+      </c>
+      <c r="P6" t="s">
+        <v>366</v>
+      </c>
+      <c r="R6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" t="s">
+        <v>177</v>
+      </c>
+      <c r="T6" t="s">
+        <v>182</v>
+      </c>
+      <c r="U6" t="s">
+        <v>188</v>
+      </c>
+      <c r="V6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" t="s">
+        <v>365</v>
+      </c>
+      <c r="R7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" t="s">
+        <v>183</v>
+      </c>
+      <c r="U7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" t="s">
+        <v>248</v>
+      </c>
+      <c r="P8" t="s">
+        <v>367</v>
+      </c>
+      <c r="R8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" t="s">
+        <v>184</v>
+      </c>
+      <c r="U8" t="s">
+        <v>190</v>
+      </c>
+      <c r="V8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" t="s">
+        <v>309</v>
+      </c>
+      <c r="I9" t="s">
+        <v>395</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" t="s">
+        <v>249</v>
+      </c>
+      <c r="P9" t="s">
+        <v>368</v>
+      </c>
+      <c r="R9" t="s">
+        <v>212</v>
+      </c>
+      <c r="U9" t="s">
+        <v>191</v>
+      </c>
+      <c r="V9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>250</v>
+      </c>
+      <c r="R10" t="s">
+        <v>260</v>
+      </c>
+      <c r="U10" t="s">
+        <v>192</v>
+      </c>
+      <c r="V10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>251</v>
+      </c>
+      <c r="R11" t="s">
+        <v>261</v>
+      </c>
+      <c r="U11" t="s">
+        <v>262</v>
+      </c>
+      <c r="V11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" t="s">
+        <v>252</v>
+      </c>
+      <c r="R12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>257</v>
+      </c>
+      <c r="R13" t="s">
+        <v>329</v>
+      </c>
+      <c r="U13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" t="s">
+        <v>253</v>
+      </c>
+      <c r="R14" t="s">
+        <v>104</v>
+      </c>
+      <c r="U14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
+      <c r="C15" t="s">
+        <v>391</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
+      <c r="E15" t="s">
+        <v>268</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
+      <c r="I15" t="s">
+        <v>85</v>
       </c>
-      <c r="H1" t="s">
-        <v>352</v>
+      <c r="N15" t="s">
+        <v>254</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
+      <c r="R15" t="s">
+        <v>105</v>
       </c>
-      <c r="J1" t="s">
-        <v>338</v>
+      <c r="U15" t="s">
+        <v>196</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>362</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I16" t="s">
+        <v>385</v>
+      </c>
+      <c r="N16" t="s">
+        <v>255</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>397</v>
+      </c>
+      <c r="R18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>299</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>301</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" t="s">
+        <v>302</v>
+      </c>
+      <c r="R22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" t="s">
+        <v>293</v>
+      </c>
+      <c r="R23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>282</v>
+      </c>
+      <c r="R24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="R25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>285</v>
+      </c>
+      <c r="R26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>269</v>
+      </c>
+      <c r="R27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>286</v>
+      </c>
+      <c r="R28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>287</v>
+      </c>
+      <c r="R29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>219</v>
+      </c>
+      <c r="R30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>278</v>
+      </c>
+      <c r="R31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>288</v>
+      </c>
+      <c r="R32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>263</v>
+      </c>
+      <c r="R33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>333</v>
+      </c>
+      <c r="R34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>310</v>
+      </c>
+      <c r="R35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>264</v>
+      </c>
+      <c r="R36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>311</v>
+      </c>
+      <c r="R37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>270</v>
+      </c>
+      <c r="R38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>215</v>
+      </c>
+      <c r="R40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>292</v>
+      </c>
+      <c r="R41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>303</v>
+      </c>
+      <c r="R42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>304</v>
+      </c>
+      <c r="R43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>346</v>
+      </c>
+      <c r="R44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>345</v>
+      </c>
+      <c r="R45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>214</v>
+      </c>
+      <c r="R46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>323</v>
+      </c>
+      <c r="R47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>342</v>
+      </c>
+      <c r="R48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>373</v>
+      </c>
+      <c r="R49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>305</v>
+      </c>
+      <c r="R50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>359</v>
+      </c>
+      <c r="R51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>360</v>
+      </c>
+      <c r="R52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>361</v>
+      </c>
+      <c r="R53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>334</v>
+      </c>
+      <c r="R54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+      <c r="R55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>295</v>
+      </c>
+      <c r="R56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>296</v>
+      </c>
+      <c r="R57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>297</v>
+      </c>
+      <c r="R58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>306</v>
+      </c>
+      <c r="R59" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>315</v>
+      </c>
+      <c r="R60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>340</v>
+      </c>
+      <c r="R61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>312</v>
+      </c>
+      <c r="R62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>313</v>
+      </c>
+      <c r="R63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>374</v>
+      </c>
+      <c r="R64" t="s">
         <v>200</v>
       </c>
-      <c r="M1" t="s">
-        <v>55</v>
+    </row>
+    <row r="65" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>375</v>
       </c>
-      <c r="N1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="R65" t="s">
         <v>201</v>
       </c>
-      <c r="M2" t="s">
-        <v>401</v>
+    </row>
+    <row r="66" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>348</v>
       </c>
-      <c r="N2" t="s">
-        <v>258</v>
+      <c r="R66" t="s">
+        <v>144</v>
       </c>
-      <c r="O2" t="s">
-        <v>222</v>
+    </row>
+    <row r="67" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>316</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>272</v>
+      </c>
+      <c r="R68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>356</v>
+      </c>
+      <c r="R69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>317</v>
+      </c>
+      <c r="R70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>307</v>
+      </c>
+      <c r="R71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>265</v>
+      </c>
+      <c r="R72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>347</v>
+      </c>
+      <c r="R73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>283</v>
+      </c>
+      <c r="R74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>289</v>
+      </c>
+      <c r="R75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>294</v>
+      </c>
+      <c r="R76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>335</v>
+      </c>
+      <c r="R77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>273</v>
+      </c>
+      <c r="R78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>284</v>
+      </c>
+      <c r="R79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>290</v>
+      </c>
+      <c r="R80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>279</v>
+      </c>
+      <c r="R81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>274</v>
+      </c>
+      <c r="R82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>291</v>
+      </c>
+      <c r="R83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>275</v>
+      </c>
+      <c r="R84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>276</v>
+      </c>
+      <c r="R85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>308</v>
+      </c>
+      <c r="R86" t="s">
         <v>388</v>
       </c>
-      <c r="Q2" t="s">
-        <v>100</v>
+    </row>
+    <row r="87" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>314</v>
       </c>
-      <c r="R2" t="s">
-        <v>175</v>
+      <c r="R87" t="s">
+        <v>152</v>
       </c>
-      <c r="S2" t="s">
-        <v>180</v>
+    </row>
+    <row r="88" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>298</v>
       </c>
-      <c r="T2" t="s">
-        <v>187</v>
+      <c r="R88" t="s">
+        <v>153</v>
       </c>
-      <c r="U2" t="s">
-        <v>233</v>
+    </row>
+    <row r="89" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>343</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
+      <c r="R89" t="s">
+        <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>380</v>
+    </row>
+    <row r="90" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>280</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="R90" t="s">
+        <v>155</v>
       </c>
-      <c r="D3" t="s">
-        <v>372</v>
+    </row>
+    <row r="91" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>281</v>
       </c>
-      <c r="E3" t="s">
-        <v>91</v>
+      <c r="R91" t="s">
+        <v>156</v>
       </c>
-      <c r="F3" t="s">
-        <v>333</v>
+    </row>
+    <row r="92" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="R92" t="s">
+        <v>157</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
+    </row>
+    <row r="93" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="R93" t="s">
+        <v>158</v>
       </c>
-      <c r="H3" t="s">
-        <v>355</v>
+    </row>
+    <row r="94" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="R94" t="s">
+        <v>159</v>
       </c>
-      <c r="I3" t="s">
-        <v>346</v>
+    </row>
+    <row r="95" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="R95" t="s">
+        <v>160</v>
       </c>
-      <c r="J3" t="s">
-        <v>339</v>
+    </row>
+    <row r="96" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="R96" t="s">
+        <v>161</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
+    </row>
+    <row r="97" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R97" t="s">
+        <v>162</v>
       </c>
-      <c r="M3" t="s">
-        <v>320</v>
+    </row>
+    <row r="98" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R98" t="s">
+        <v>163</v>
       </c>
-      <c r="N3" t="s">
-        <v>245</v>
+    </row>
+    <row r="99" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R99" t="s">
+        <v>164</v>
       </c>
-      <c r="O3" t="s">
-        <v>223</v>
+    </row>
+    <row r="100" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R100" t="s">
+        <v>165</v>
       </c>
-      <c r="P3" t="s">
-        <v>389</v>
+    </row>
+    <row r="101" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R101" t="s">
+        <v>166</v>
       </c>
-      <c r="Q3" t="s">
-        <v>101</v>
+    </row>
+    <row r="102" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R102" t="s">
+        <v>167</v>
       </c>
-      <c r="R3" t="s">
-        <v>176</v>
+    </row>
+    <row r="103" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R103" t="s">
+        <v>168</v>
       </c>
-      <c r="S3" t="s">
-        <v>181</v>
-      </c>
-      <c r="T3" t="s">
-        <v>371</v>
-      </c>
-      <c r="U3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>394</v>
-      </c>
-      <c r="F4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>246</v>
-      </c>
-      <c r="O4" t="s">
-        <v>224</v>
-      </c>
-      <c r="P4" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>359</v>
-      </c>
-      <c r="R4" t="s">
-        <v>177</v>
-      </c>
-      <c r="S4" t="s">
-        <v>182</v>
-      </c>
-      <c r="T4" t="s">
-        <v>188</v>
-      </c>
-      <c r="U4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H5" t="s">
-        <v>353</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P5" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>360</v>
-      </c>
-      <c r="R5" t="s">
-        <v>178</v>
-      </c>
-      <c r="S5" t="s">
-        <v>183</v>
-      </c>
-      <c r="T5" t="s">
-        <v>189</v>
-      </c>
-      <c r="U5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>248</v>
-      </c>
-      <c r="O6" t="s">
-        <v>398</v>
-      </c>
-      <c r="P6" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" t="s">
-        <v>184</v>
-      </c>
-      <c r="T6" t="s">
-        <v>190</v>
-      </c>
-      <c r="U6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F7" t="s">
-        <v>329</v>
-      </c>
-      <c r="I7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>103</v>
-      </c>
-      <c r="S7" t="s">
-        <v>185</v>
-      </c>
-      <c r="T7" t="s">
-        <v>191</v>
-      </c>
-      <c r="U7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F8" t="s">
-        <v>330</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" t="s">
-        <v>250</v>
-      </c>
-      <c r="P8" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>104</v>
-      </c>
-      <c r="S8" t="s">
-        <v>186</v>
-      </c>
-      <c r="T8" t="s">
-        <v>192</v>
-      </c>
-      <c r="U8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" t="s">
-        <v>311</v>
-      </c>
-      <c r="I9" t="s">
-        <v>397</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" t="s">
-        <v>251</v>
-      </c>
-      <c r="P9" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>214</v>
-      </c>
-      <c r="T9" t="s">
-        <v>193</v>
-      </c>
-      <c r="U9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" t="s">
-        <v>357</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>262</v>
-      </c>
-      <c r="T10" t="s">
-        <v>194</v>
-      </c>
-      <c r="U10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>346</v>
-      </c>
-      <c r="E11" t="s">
-        <v>279</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>263</v>
-      </c>
-      <c r="T11" t="s">
-        <v>264</v>
-      </c>
-      <c r="U11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>105</v>
-      </c>
-      <c r="T12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>321</v>
-      </c>
-      <c r="I13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>331</v>
-      </c>
-      <c r="T13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E14" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>393</v>
-      </c>
-      <c r="E15" t="s">
-        <v>270</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>107</v>
-      </c>
-      <c r="T15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>322</v>
-      </c>
-      <c r="I16" t="s">
-        <v>387</v>
-      </c>
-      <c r="N16" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>78</v>
-      </c>
-      <c r="T16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I19" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>326</v>
-      </c>
-      <c r="E20" t="s">
-        <v>302</v>
-      </c>
-      <c r="I20" t="s">
+    </row>
+    <row r="104" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R104" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>303</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E45" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E57" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E58" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E59" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E60" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E61" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E62" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E63" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E64" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E65" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E66" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E67" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E69" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E70" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E71" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E72" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E74" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E75" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E76" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E77" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E78" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E79" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E80" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E81" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E83" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E85" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E86" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E87" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E88" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E90" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E91" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q92" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="93" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q93" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q94" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q95" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q96" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q97" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q98" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q99" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q100" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q101" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q102" t="s">
+    </row>
+    <row r="105" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R105" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q103" t="s">
+    <row r="106" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R106" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q105" t="s">
+    <row r="107" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R107" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q106" t="s">
+    <row r="108" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R108" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q108" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +3945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3938,30 +3967,30 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
@@ -3969,7 +3998,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -3979,7 +4008,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -4007,67 +4036,67 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>227</v>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4082,16 +4111,16 @@
     <row r="6" spans="1:15" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -15408,7 +15437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15430,30 +15459,30 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
@@ -15461,7 +15490,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -15471,7 +15500,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -15499,67 +15528,67 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>227</v>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -15575,16 +15604,16 @@
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -15599,16 +15628,16 @@
     <row r="7" spans="1:15" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -15624,16 +15653,16 @@
     <row r="8" spans="1:15" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -32091,9 +32120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490B43BB-F4B8-814B-AE79-0F34343BE626}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32116,30 +32145,30 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
@@ -32147,7 +32176,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -32157,7 +32186,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -32185,67 +32214,67 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>227</v>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -32261,16 +32290,16 @@
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -32285,19 +32314,19 @@
     <row r="7" spans="1:15" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -32313,16 +32342,16 @@
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -32337,19 +32366,19 @@
     <row r="9" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -33898,7 +33927,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -33917,7 +33946,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -48795,7 +48824,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48817,30 +48846,30 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
@@ -48848,7 +48877,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -48858,7 +48887,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -48886,62 +48915,62 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>227</v>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>

--- a/artifact/script/rdbms-08.xlsx
+++ b/artifact/script/rdbms-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A3872-39C2-854B-A912-B3679FE9980E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCAFFCE-5632-754E-A758-5D1C541FC7BA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4340" windowWidth="33600" windowHeight="16660" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="25160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -4031,9 +4031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4041,7 +4041,7 @@
     <col min="1" max="1" width="16.83203125" style="28" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.6640625" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="28" style="10" customWidth="1" collapsed="1"/>
     <col min="6" max="9" width="17.1640625" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="17.1640625" style="23" customWidth="1" collapsed="1"/>
@@ -15506,7 +15506,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
@@ -15523,9 +15523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB8D855-58CD-1E48-8136-9770ACCC6450}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32208,9 +32208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490B43BB-F4B8-814B-AE79-0F34343BE626}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32218,7 +32218,7 @@
     <col min="1" max="1" width="16" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="22.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.6640625" style="10" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="70.6640625" style="10" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="57.1640625" style="10" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
@@ -48910,9 +48910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC1885-E5B2-E44F-B755-2D6350957716}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48921,7 +48921,7 @@
     <col min="2" max="2" width="30.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="31.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="45.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="45.1640625" style="10" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27.1640625" style="10" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="15.83203125" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15.83203125" style="23" customWidth="1" collapsed="1"/>

--- a/artifact/script/rdbms-08.xlsx
+++ b/artifact/script/rdbms-08.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{4BCAFFCE-5632-754E-A758-5D1C541FC7BA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -48,7 +48,7 @@
     <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
     <definedName name="ws">'#system'!$W$2:$W$16</definedName>
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="457">
   <si>
     <t>description</t>
   </si>
@@ -1850,13 +1850,28 @@
   <si>
     <t>warp(repeats)</t>
   </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2023,8 +2038,178 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="73">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2162,8 +2347,280 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -2395,6 +2852,482 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2402,7 +3335,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="79">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2541,40 +3474,121 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2991,7 +4005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3124,7 +4138,7 @@
         <v>429</v>
       </c>
       <c r="Q2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="R2" t="s">
         <v>384</v>
@@ -3195,7 +4209,7 @@
         <v>430</v>
       </c>
       <c r="Q3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="R3" t="s">
         <v>385</v>
@@ -3262,6 +4276,9 @@
       <c r="P4" t="s">
         <v>431</v>
       </c>
+      <c r="Q4" t="s">
+        <v>454</v>
+      </c>
       <c r="R4" t="s">
         <v>361</v>
       </c>
@@ -3320,6 +4337,9 @@
       </c>
       <c r="P5" t="s">
         <v>432</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>455</v>
       </c>
       <c r="R5" t="s">
         <v>362</v>
@@ -3851,7 +4871,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -3862,7 +4882,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
@@ -3873,7 +4893,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
@@ -3884,7 +4904,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
@@ -3895,7 +4915,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -3906,7 +4926,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
@@ -3917,7 +4937,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -3928,7 +4948,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
         <v>288</v>
@@ -3938,6 +4958,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
       <c r="E33" t="s">
         <v>263</v>
       </c>
@@ -4503,7 +5526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="100" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -15995,7 +17018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB8D855-58CD-1E48-8136-9770ACCC6450}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -32680,7 +33703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490B43BB-F4B8-814B-AE79-0F34343BE626}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -49382,7 +50405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC1885-E5B2-E44F-B755-2D6350957716}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/rdbms-08.xlsx
+++ b/artifact/script/rdbms-08.xlsx
@@ -25,30 +25,32 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="472">
   <si>
     <t>description</t>
   </si>
@@ -1865,13 +1867,58 @@
   <si>
     <t>section(steps)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2208,8 +2255,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="73">
+  <fills count="100">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2619,8 +2760,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="71">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -3328,6 +3622,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3335,7 +3911,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3546,49 +4122,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="39" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="90" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4003,7 +4624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4064,27 +4685,33 @@
         <v>427</v>
       </c>
       <c r="Q1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R1" t="s">
         <v>444</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>360</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>423</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4120,13 +4747,13 @@
         <v>387</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>460</v>
       </c>
       <c r="L2" t="s">
         <v>447</v>
       </c>
       <c r="M2" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="N2" t="s">
         <v>256</v>
@@ -4138,27 +4765,33 @@
         <v>429</v>
       </c>
       <c r="Q2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R2" t="s">
         <v>452</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>384</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>424</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>173</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>178</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>185</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4194,10 +4827,10 @@
         <v>337</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>462</v>
       </c>
       <c r="N3" t="s">
         <v>243</v>
@@ -4208,28 +4841,31 @@
       <c r="P3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>453</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>385</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>425</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>99</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>174</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>179</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>367</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4262,7 +4898,7 @@
         <v>338</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -4276,28 +4912,31 @@
       <c r="P4" t="s">
         <v>431</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>454</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>361</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>426</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>357</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>175</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>180</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>186</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4324,7 +4963,7 @@
         <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -4338,25 +4977,28 @@
       <c r="P5" t="s">
         <v>432</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>455</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>362</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>358</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>176</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>181</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>187</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4380,7 +5022,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -4394,22 +5036,25 @@
       <c r="P6" t="s">
         <v>433</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>364</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>100</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>177</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>182</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>188</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4433,7 +5078,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -4447,19 +5092,22 @@
       <c r="P7" t="s">
         <v>434</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>363</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>183</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>189</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4483,7 +5131,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -4494,19 +5142,22 @@
       <c r="P8" t="s">
         <v>435</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>365</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>184</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>190</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4527,7 +5178,7 @@
         <v>393</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -4538,16 +5189,16 @@
       <c r="P9" t="s">
         <v>436</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>366</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>212</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>191</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4565,10 +5216,10 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>463</v>
       </c>
       <c r="N10" t="s">
         <v>250</v>
@@ -4576,13 +5227,13 @@
       <c r="P10" t="s">
         <v>437</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>260</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>192</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4600,21 +5251,21 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
         <v>251</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>261</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>262</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4631,16 +5282,19 @@
       <c r="I12" t="s">
         <v>82</v>
       </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>252</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>103</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4658,15 +5312,15 @@
         <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
         <v>257</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>329</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4684,15 +5338,15 @@
         <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
         <v>253</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>104</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4709,13 +5363,16 @@
       <c r="I15" t="s">
         <v>85</v>
       </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
       <c r="N15" t="s">
         <v>254</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>105</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4735,16 +5392,16 @@
       <c r="N16" t="s">
         <v>255</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>76</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -4755,13 +5412,13 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -4772,13 +5429,13 @@
       <c r="I18" t="s">
         <v>395</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
         <v>259</v>
@@ -4789,13 +5446,13 @@
       <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>423</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -4806,13 +5463,13 @@
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>324</v>
@@ -4823,13 +5480,13 @@
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -4837,13 +5494,13 @@
       <c r="E22" t="s">
         <v>302</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>228</v>
@@ -4851,13 +5508,13 @@
       <c r="E23" t="s">
         <v>293</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>229</v>
@@ -4865,29 +5522,35 @@
       <c r="E24" t="s">
         <v>282</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>458</v>
+      </c>
       <c r="C25" t="s">
         <v>456</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4898,7 +5561,7 @@
       <c r="E27" t="s">
         <v>269</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4909,7 +5572,7 @@
       <c r="E28" t="s">
         <v>286</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4920,7 +5583,7 @@
       <c r="E29" t="s">
         <v>287</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4931,7 +5594,7 @@
       <c r="E30" t="s">
         <v>219</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4942,7 +5605,7 @@
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4953,7 +5616,7 @@
       <c r="E32" t="s">
         <v>288</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4964,7 +5627,7 @@
       <c r="E33" t="s">
         <v>263</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4972,7 +5635,7 @@
       <c r="E34" t="s">
         <v>333</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4980,7 +5643,7 @@
       <c r="E35" t="s">
         <v>310</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4988,7 +5651,7 @@
       <c r="E36" t="s">
         <v>264</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4996,524 +5659,532 @@
       <c r="E37" t="s">
         <v>311</v>
       </c>
-      <c r="T37" t="s">
-        <v>396</v>
+      <c r="U37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>270</v>
       </c>
-      <c r="T38" t="s">
-        <v>123</v>
+      <c r="U38" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="T39" t="s">
-        <v>124</v>
+      <c r="U39" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>215</v>
       </c>
-      <c r="T40" t="s">
-        <v>125</v>
+      <c r="U40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>292</v>
       </c>
-      <c r="T41" t="s">
-        <v>126</v>
+      <c r="U41" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>303</v>
       </c>
-      <c r="T42" t="s">
-        <v>127</v>
+      <c r="U42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>304</v>
       </c>
-      <c r="T43" t="s">
-        <v>128</v>
+      <c r="U43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>346</v>
       </c>
-      <c r="T44" t="s">
-        <v>216</v>
+      <c r="U44" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>345</v>
       </c>
-      <c r="T45" t="s">
-        <v>78</v>
+      <c r="U45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>214</v>
       </c>
-      <c r="T46" t="s">
-        <v>129</v>
+      <c r="U46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>323</v>
       </c>
-      <c r="T47" t="s">
-        <v>130</v>
+      <c r="U47" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>342</v>
       </c>
-      <c r="T48" t="s">
-        <v>131</v>
+      <c r="U48" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>371</v>
       </c>
-      <c r="T49" t="s">
-        <v>132</v>
+      <c r="U49" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>305</v>
       </c>
-      <c r="T50" t="s">
-        <v>349</v>
+      <c r="U50" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>359</v>
       </c>
-      <c r="T51" t="s">
-        <v>133</v>
+      <c r="U51" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>334</v>
       </c>
-      <c r="T52" t="s">
-        <v>134</v>
+      <c r="U52" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>271</v>
       </c>
-      <c r="T53" t="s">
-        <v>135</v>
+      <c r="U53" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>295</v>
       </c>
-      <c r="T54" t="s">
-        <v>136</v>
+      <c r="U54" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>296</v>
       </c>
-      <c r="T55" t="s">
-        <v>137</v>
+      <c r="U55" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="T56" t="s">
-        <v>138</v>
+      <c r="U56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>306</v>
       </c>
-      <c r="T57" t="s">
-        <v>139</v>
+      <c r="U57" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>315</v>
       </c>
-      <c r="T58" t="s">
-        <v>217</v>
+      <c r="U58" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>340</v>
       </c>
-      <c r="T59" t="s">
-        <v>392</v>
+      <c r="U59" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>312</v>
       </c>
-      <c r="T60" t="s">
-        <v>140</v>
+      <c r="U60" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>313</v>
       </c>
-      <c r="T61" t="s">
-        <v>141</v>
+      <c r="U61" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>372</v>
       </c>
-      <c r="T62" t="s">
-        <v>142</v>
+      <c r="U62" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>373</v>
       </c>
-      <c r="T63" t="s">
-        <v>143</v>
+      <c r="U63" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>348</v>
       </c>
-      <c r="T64" t="s">
-        <v>200</v>
+      <c r="U64" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>316</v>
       </c>
-      <c r="T65" t="s">
-        <v>201</v>
+      <c r="U65" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>272</v>
       </c>
-      <c r="T66" t="s">
-        <v>144</v>
+      <c r="U66" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>356</v>
       </c>
-      <c r="T67" t="s">
-        <v>145</v>
+      <c r="U67" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>317</v>
       </c>
-      <c r="T68" t="s">
-        <v>146</v>
+      <c r="U68" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>446</v>
       </c>
-      <c r="T69" t="s">
-        <v>147</v>
+      <c r="U69" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>307</v>
       </c>
-      <c r="T70" t="s">
-        <v>148</v>
+      <c r="U70" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>428</v>
       </c>
-      <c r="T71" t="s">
-        <v>202</v>
+      <c r="U71" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>265</v>
       </c>
-      <c r="T72" t="s">
-        <v>203</v>
+      <c r="U72" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>347</v>
       </c>
-      <c r="T73" t="s">
-        <v>204</v>
+      <c r="U73" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>283</v>
       </c>
-      <c r="T74" t="s">
-        <v>205</v>
+      <c r="U74" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>289</v>
       </c>
-      <c r="T75" t="s">
-        <v>218</v>
+      <c r="U75" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>294</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>459</v>
+      </c>
+      <c r="U77" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
+    <row r="78">
+      <c r="E78" t="s">
         <v>335</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U78" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
+    <row r="79">
+      <c r="E79" t="s">
         <v>273</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U79" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
+    <row r="80">
+      <c r="E80" t="s">
         <v>284</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U80" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
+    <row r="81">
+      <c r="E81" t="s">
         <v>290</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U81" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
+    <row r="82">
+      <c r="E82" t="s">
         <v>279</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U82" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
+    <row r="83">
+      <c r="E83" t="s">
         <v>274</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U83" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
+    <row r="84">
+      <c r="E84" t="s">
         <v>291</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U84" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
+    <row r="85">
+      <c r="E85" t="s">
         <v>275</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U85" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
+    <row r="86">
+      <c r="E86" t="s">
         <v>276</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U86" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
+    <row r="87">
+      <c r="E87" t="s">
         <v>308</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U87" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
+    <row r="88">
+      <c r="E88" t="s">
         <v>314</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U88" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
+    <row r="89">
+      <c r="E89" t="s">
         <v>298</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U89" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
+    <row r="90">
+      <c r="E90" t="s">
         <v>343</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U90" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
+    <row r="91">
+      <c r="E91" t="s">
         <v>280</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U91" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
+    <row r="92">
+      <c r="E92" t="s">
         <v>281</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U92" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92">
-      <c r="T92" t="s">
+    <row r="93">
+      <c r="U93" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93">
-      <c r="T93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94">
-      <c r="T94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95">
-      <c r="T95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96">
-      <c r="T96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97">
-      <c r="T97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98">
-      <c r="T98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99">
-      <c r="T99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100">
-      <c r="T100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101">
-      <c r="T101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102">
-      <c r="T102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="103">
-      <c r="T103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104">
-      <c r="T104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105">
-      <c r="T105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106">
-      <c r="T106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107">
-      <c r="T107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108">
-      <c r="T108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>172</v>
       </c>
     </row>

--- a/artifact/script/rdbms-08.xlsx
+++ b/artifact/script/rdbms-08.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1912,13 +1912,25 @@
   <si>
     <t>put(url,body,output)</t>
   </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="127" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2349,8 +2361,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="100">
+  <fills count="208">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2913,8 +3301,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="211">
     <border>
       <left/>
       <right/>
@@ -3904,6 +4904,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3911,7 +6039,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4167,49 +6295,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="90" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="90" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="69" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="114" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="117" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="120" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="120" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="84" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="85" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="87" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="141" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="144" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="147" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="147" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="100" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="102" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="168" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="171" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="174" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="174" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="195" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="198" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="201" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="201" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4624,7 +6932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5868,7 +8176,7 @@
         <v>373</v>
       </c>
       <c r="U63" t="s">
-        <v>142</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64">
@@ -5876,7 +8184,7 @@
         <v>348</v>
       </c>
       <c r="U64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
@@ -5884,7 +8192,7 @@
         <v>316</v>
       </c>
       <c r="U65" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
@@ -5892,7 +8200,7 @@
         <v>272</v>
       </c>
       <c r="U66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -5900,7 +8208,7 @@
         <v>356</v>
       </c>
       <c r="U67" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68">
@@ -5908,7 +8216,7 @@
         <v>317</v>
       </c>
       <c r="U68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69">
@@ -5916,7 +8224,7 @@
         <v>446</v>
       </c>
       <c r="U69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
@@ -5924,7 +8232,7 @@
         <v>307</v>
       </c>
       <c r="U70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
@@ -5932,7 +8240,7 @@
         <v>428</v>
       </c>
       <c r="U71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
@@ -5940,7 +8248,7 @@
         <v>265</v>
       </c>
       <c r="U72" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
@@ -5948,7 +8256,7 @@
         <v>347</v>
       </c>
       <c r="U73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74">
@@ -5956,7 +8264,7 @@
         <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75">
@@ -5964,7 +8272,7 @@
         <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76">
@@ -5972,7 +8280,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77">
@@ -5980,7 +8288,7 @@
         <v>459</v>
       </c>
       <c r="U77" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78">
@@ -5988,7 +8296,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79">
@@ -5996,7 +8304,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
@@ -6004,7 +8312,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>207</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81">
@@ -6012,7 +8320,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82">
@@ -6020,7 +8328,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83">
@@ -6028,7 +8336,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84">
@@ -6036,7 +8344,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
@@ -6044,7 +8352,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86">
@@ -6052,7 +8360,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87">
@@ -6060,7 +8368,7 @@
         <v>308</v>
       </c>
       <c r="U87" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88">
@@ -6068,7 +8376,7 @@
         <v>314</v>
       </c>
       <c r="U88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89">
@@ -6076,7 +8384,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>153</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90">
@@ -6084,7 +8392,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91">
@@ -6092,7 +8400,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
@@ -6100,91 +8408,101 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="U94" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>172</v>
       </c>
     </row>
